--- a/Users List/Persistent Users.xlsx
+++ b/Users List/Persistent Users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graj1\OneDrive - One Magnify\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\windows-client\windows-client\Users List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F37E20F-8469-4E9C-B329-451632F18788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4580F97E-A16E-4E0A-A910-5E81EF20DC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1095" windowWidth="29040" windowHeight="15720" xr2:uid="{EA91A8AA-3C29-431F-B915-E15288A414B3}"/>
   </bookViews>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <si>
-    <t>User name [userPrincipalName] Required</t>
-  </si>
-  <si>
-    <t>Initial password [passwordProfile] Required</t>
-  </si>
-  <si>
     <t>Candidate name</t>
   </si>
   <si>
@@ -816,6 +810,12 @@
   </si>
   <si>
     <t xml:space="preserve">ovN5$yS9 </t>
+  </si>
+  <si>
+    <t>User name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial password </t>
   </si>
 </sst>
 </file>
@@ -1231,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6303E3E4-6E1C-4C14-AD58-FC9C0F23570C}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,914 +1243,914 @@
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B60" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B61" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B65" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
